--- a/StructureDefinition-ClinicalUseDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T17:04:16+00:00</t>
+    <t>2022-02-16T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -499,7 +499,7 @@
     <t>ClinicalUseDefinition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicinalProductDefinition)
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ClinicalUseDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:02:33+00:00</t>
+    <t>2022-02-16T18:21:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:21:09+00:00</t>
+    <t>2022-02-17T07:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
